--- a/随心穿-文档/项目规划/数据库.xlsx
+++ b/随心穿-文档/项目规划/数据库.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PT\github\Suixinchuan\随心穿-文档\项目规划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC822E0-15C3-473F-BF7D-F0BA43C5FA62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C762CAB-B124-4A74-A3C9-F701EEFFEC70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3610" yWindow="-210" windowWidth="7680" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="170">
-  <si>
-    <t>用户表</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="166">
   <si>
     <t>序号</t>
   </si>
@@ -91,12 +88,6 @@
     <t>是</t>
   </si>
   <si>
-    <t>收货地址</t>
-  </si>
-  <si>
-    <t>userAdd</t>
-  </si>
-  <si>
     <t>租借时间</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
     <t>userMon</t>
   </si>
   <si>
-    <t>商家表</t>
-  </si>
-  <si>
     <t>商家id</t>
   </si>
   <si>
@@ -238,9 +226,6 @@
     <t>标题</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>商品ID</t>
   </si>
   <si>
@@ -298,10 +283,6 @@
   </si>
   <si>
     <t>默认地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -459,31 +440,6 @@
   </si>
   <si>
     <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>er</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Image</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>mer</t>
     </r>
     <r>
@@ -525,33 +481,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Size</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>er</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Color</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -619,14 +548,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>XL码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>均码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>优惠标题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -681,14 +602,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sizeXL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sizeC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>腰围S</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -844,23 +757,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>varc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>har</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>租借id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -928,6 +824,106 @@
   </si>
   <si>
     <r>
+      <t>shop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pwd</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Im</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mage</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizeid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>a</t>
     </r>
     <r>
@@ -941,15 +937,26 @@
       </rPr>
       <t>ddress</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>商家表s</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Id</t>
+      <t>hop</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1042,7 +1049,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1060,12 +1067,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1105,6 +1106,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1381,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1395,37 +1411,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1433,22 +1449,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1456,19 +1472,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3">
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -1477,19 +1493,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3">
         <v>50</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>91</v>
+      <c r="F5" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -1498,44 +1514,44 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>92</v>
+        <v>50</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>23</v>
@@ -1543,1394 +1559,1393 @@
       <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
+      <c r="D8" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="E8" s="3">
-        <v>50</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3">
-        <v>20</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>7</v>
+      <c r="G13" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="F14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="3">
-        <v>20</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>91</v>
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="3">
-        <v>50</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="3">
-        <v>20</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>7</v>
+      <c r="G21" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3">
-        <v>20</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>22</v>
+      <c r="F23" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>92</v>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3">
+        <v>20</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="G28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="C29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E29" s="3">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="3">
-        <v>20</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>7</v>
+      <c r="G29" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="3">
         <v>20</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="F30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>2</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="3">
         <v>20</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>91</v>
+      <c r="F31" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3">
         <v>10</v>
       </c>
-      <c r="E32" s="3">
-        <v>20</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>91</v>
+      <c r="F32" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E33" s="3">
-        <v>10</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>91</v>
+        <v>50</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="3">
         <v>50</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>91</v>
+      <c r="F34" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="3">
         <v>50</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>91</v>
+      <c r="F35" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
-        <v>7</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="3">
-        <v>20</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+    </row>
     <row r="38" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="2">
         <v>1</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="2">
-        <v>20</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="3">
+        <v>20</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="E41" s="3">
         <v>20</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>91</v>
+      <c r="F41" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E42" s="3">
-        <v>10</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>91</v>
+        <v>30</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="E43" s="3">
+        <v>20</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>6</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="3">
         <v>20</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="F44" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>7</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>110</v>
+        <v>8</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="3">
         <v>20</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>91</v>
+      <c r="F45" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="3">
         <v>20</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>91</v>
+      <c r="F46" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="E47" s="3">
         <v>20</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G47" s="3"/>
+      <c r="F47" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>10</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="3">
-        <v>20</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>49</v>
+        <v>11</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="6">
+        <v>20</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
-        <v>11</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49" s="8">
-        <v>20</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>94</v>
+        <v>12</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" s="6">
+        <v>20</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
-        <v>12</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="8">
-        <v>20</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>91</v>
+        <v>13</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="6">
+        <v>20</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
-        <v>13</v>
-      </c>
-      <c r="B51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="8">
-        <v>20</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>94</v>
-      </c>
+      <c r="D51" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="6">
+        <v>20</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
-        <v>14</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="E52" s="8">
-        <v>10</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="H52" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+    </row>
     <row r="54" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="2">
         <v>1</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>7</v>
+      <c r="B55" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="2">
+        <v>20</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
-        <v>1</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="2">
-        <v>20</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>93</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="1">
+        <v>50</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="1">
-        <v>50</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>160</v>
+        <v>7</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" s="1">
         <v>20</v>
       </c>
-      <c r="F58" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G58" s="1"/>
+      <c r="F58" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
+        <v>5</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="18">
+        <v>6</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="1">
-        <v>20</v>
-      </c>
-      <c r="F59" s="17" t="s">
+      <c r="F66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>1</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
-        <v>5</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="20">
-        <v>6</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="2" t="s">
+      <c r="D67" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="2">
+        <v>20</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
         <v>2</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="2">
-        <v>1</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E68" s="2">
-        <v>20</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G68" s="12" t="s">
+      <c r="B68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="15" t="s">
         <v>93</v>
       </c>
+      <c r="F68" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="1">
+        <v>20</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+    </row>
+    <row r="73" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="D73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>1</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="2">
+        <v>20</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G74" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F69" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>3</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="1">
-        <v>20</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="2" t="s">
+    </row>
+    <row r="75" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
         <v>2</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="2">
-        <v>1</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E75" s="2">
-        <v>20</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>93</v>
-      </c>
+      <c r="B75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>168</v>
+        <v>83</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E76" s="1">
+        <v>20</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
+        <v>4</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="1">
+        <v>20</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+    </row>
+    <row r="81" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="1">
-        <v>20</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+      <c r="E81" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="1">
-        <v>20</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-    </row>
-    <row r="82" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
+      <c r="F81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>1</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>7</v>
+      <c r="B82" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82">
+        <v>20</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>104</v>
+        <v>2</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="E83">
-        <v>20</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>93</v>
+        <v>50</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+    </row>
+    <row r="86" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E84">
-        <v>50</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="D86" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E85">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="14" t="s">
+      <c r="E86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-    </row>
-    <row r="87" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>7</v>
+      <c r="D87" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E87">
+        <v>20</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>104</v>
+      <c r="D88" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E88">
         <v>20</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>2</v>
-      </c>
-      <c r="B89" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>104</v>
+      <c r="D89" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E89">
         <v>20</v>
@@ -2938,16 +2953,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>3</v>
-      </c>
-      <c r="B90" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C90" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>104</v>
+      <c r="D90" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E90">
         <v>20</v>
@@ -2955,16 +2970,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>4</v>
-      </c>
-      <c r="B91" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D91" s="10" t="s">
-        <v>104</v>
+      <c r="D91" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E91">
         <v>20</v>
@@ -2972,16 +2987,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>5</v>
-      </c>
-      <c r="B92" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D92" s="10" t="s">
-        <v>104</v>
+      <c r="D92" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E92">
         <v>20</v>
@@ -2989,16 +3004,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>6</v>
-      </c>
-      <c r="B93" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D93" s="10" t="s">
-        <v>104</v>
+      <c r="D93" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E93">
         <v>20</v>
@@ -3006,16 +3021,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>7</v>
-      </c>
-      <c r="B94" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C94" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>104</v>
+      <c r="D94" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E94">
         <v>20</v>
@@ -3023,16 +3038,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>8</v>
-      </c>
-      <c r="B95" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C95" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>104</v>
+      <c r="D95" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E95">
         <v>20</v>
@@ -3040,16 +3055,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>9</v>
-      </c>
-      <c r="B96" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C96" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>104</v>
+      <c r="D96" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E96">
         <v>20</v>
@@ -3057,16 +3072,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>10</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>104</v>
+        <v>13</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E97">
         <v>20</v>
@@ -3074,16 +3089,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>11</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>104</v>
+        <v>14</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E98">
         <v>20</v>
@@ -3091,179 +3106,131 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>12</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C99" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+    </row>
+    <row r="103" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D99" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E99">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>13</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C100" s="15" t="s">
+      <c r="C104" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D100" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E100">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>14</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E101">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>15</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E102">
-        <v>20</v>
-      </c>
+      <c r="D104" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E104">
+        <v>20</v>
+      </c>
+      <c r="G104" s="11"/>
     </row>
     <row r="105" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-    </row>
-    <row r="106" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="2" t="s">
+      <c r="A105">
         <v>2</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="B105" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E105">
+        <v>20</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>3</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>7</v>
+      <c r="B106" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E106">
+        <v>20</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>1</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E107">
-        <v>20</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>93</v>
+      <c r="G107" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>2</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E108">
-        <v>20</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>3</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E109">
-        <v>20</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>94</v>
+      <c r="G108" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="A105:G105"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A66:G66"/>
+  <mergeCells count="10">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A65:G65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/随心穿-文档/项目规划/数据库.xlsx
+++ b/随心穿-文档/项目规划/数据库.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PT\github\Suixinchuan\随心穿-文档\项目规划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C762CAB-B124-4A74-A3C9-F701EEFFEC70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF215BD-3DBD-4A89-9377-04E0B8AB323E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3610" yWindow="-210" windowWidth="7680" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3640" yWindow="-110" windowWidth="7680" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="149">
   <si>
     <t>序号</t>
   </si>
@@ -130,21 +130,12 @@
     <t>动态id</t>
   </si>
   <si>
-    <t>dynamicId</t>
-  </si>
-  <si>
     <t>图片</t>
   </si>
   <si>
-    <t>dynamicImg</t>
-  </si>
-  <si>
     <t>文段</t>
   </si>
   <si>
-    <t>dynamicContent</t>
-  </si>
-  <si>
     <t>MAX</t>
   </si>
   <si>
@@ -236,9 +227,6 @@
   </si>
   <si>
     <t>颜色</t>
-  </si>
-  <si>
-    <t>用户ID</t>
   </si>
   <si>
     <t>租借表</t>
@@ -536,40 +524,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>S码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>优惠标题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>优惠价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>sale</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Price</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -590,90 +549,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sizeIS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sizeM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sizeL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>腰围S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>腰围M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>腰围L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胸围M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胸围L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胸围S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>臀围S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>臀围M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>臀围L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>waistS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>waistM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>waistL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chestS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chestM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chestL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nateS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nateM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nateL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>优惠力度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -960,12 +835,60 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>dynId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynImg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynContent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>salePrice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应尺码余量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizenum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细尺码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细尺码信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizebody</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizeinfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,6 +922,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1049,7 +980,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1107,7 +1038,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1116,11 +1053,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1397,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1411,15 +1348,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="A1" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1484,7 +1421,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -1505,7 +1442,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -1526,7 +1463,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -1560,13 +1497,13 @@
         <v>24</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="E8" s="3">
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -1575,17 +1512,17 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -1599,15 +1536,15 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="A11" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -1672,7 +1609,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G14" s="3"/>
     </row>
@@ -1693,7 +1630,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -1705,7 +1642,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
@@ -1714,7 +1651,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G16" s="3"/>
     </row>
@@ -1747,15 +1684,15 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
@@ -1788,7 +1725,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
@@ -1808,10 +1745,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>20</v>
@@ -1827,19 +1764,19 @@
         <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -1848,13 +1785,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
@@ -1879,23 +1816,23 @@
         <v>20</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
+      <c r="A27" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
@@ -1914,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>6</v>
@@ -1925,10 +1862,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
@@ -1948,10 +1885,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
@@ -1960,7 +1897,7 @@
         <v>20</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -1969,10 +1906,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
@@ -1981,7 +1918,7 @@
         <v>20</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -1990,19 +1927,19 @@
         <v>4</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E32" s="3">
         <v>10</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -2011,10 +1948,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
@@ -2023,7 +1960,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -2032,10 +1969,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
@@ -2044,7 +1981,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G34" s="3"/>
     </row>
@@ -2053,10 +1990,10 @@
         <v>7</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
@@ -2065,21 +2002,21 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="A37" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
@@ -2098,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>6</v>
@@ -2109,17 +2046,17 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G39" s="2"/>
     </row>
@@ -2128,19 +2065,19 @@
         <v>2</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="E40" s="3">
         <v>20</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G40" s="3"/>
     </row>
@@ -2149,19 +2086,19 @@
         <v>3</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="E41" s="3">
         <v>20</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G41" s="3"/>
     </row>
@@ -2170,10 +2107,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>9</v>
@@ -2182,7 +2119,7 @@
         <v>30</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G42" s="3"/>
     </row>
@@ -2191,10 +2128,10 @@
         <v>6</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>9</v>
@@ -2203,10 +2140,10 @@
         <v>20</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2214,10 +2151,10 @@
         <v>7</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>9</v>
@@ -2226,7 +2163,7 @@
         <v>20</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G44" s="3"/>
     </row>
@@ -2235,10 +2172,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
@@ -2247,7 +2184,7 @@
         <v>20</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -2256,10 +2193,10 @@
         <v>9</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
@@ -2268,212 +2205,209 @@
         <v>20</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <v>10</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="3">
-        <v>20</v>
-      </c>
-      <c r="F47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>45</v>
+      <c r="E47" s="6">
+        <v>20</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>89</v>
+        <v>101</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="E48" s="6">
         <v>20</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
-        <v>12</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>162</v>
+        <v>103</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="E49" s="6">
         <v>20</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
-        <v>13</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="6">
-        <v>20</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
-        <v>14</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E51" s="6">
-        <v>20</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G51" s="8"/>
-    </row>
+      <c r="C50" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="24">
+        <v>20</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" s="25"/>
+    </row>
+    <row r="51" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
       <c r="H52" s="8" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
+      <c r="A53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="2">
         <v>1</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>6</v>
+      <c r="B54" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="2">
+        <v>20</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
-        <v>1</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" s="2">
-        <v>20</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>87</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1">
+        <v>50</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="1">
-        <v>50</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>148</v>
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>9</v>
@@ -2482,255 +2416,255 @@
         <v>20</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
+        <v>5</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="18">
+        <v>6</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="F65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>1</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" s="2">
+        <v>20</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>2</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="1">
-        <v>20</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
-        <v>5</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="18">
-        <v>6</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2">
-        <v>1</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D67" s="10" t="s">
+      <c r="E67" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E67" s="2">
-        <v>20</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>87</v>
-      </c>
+      <c r="F67" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>92</v>
+        <v>7</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="15" t="s">
-        <v>93</v>
+      <c r="E68" s="1">
+        <v>20</v>
       </c>
       <c r="F68" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+    </row>
+    <row r="72" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>1</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>3</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="1">
-        <v>20</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="19" t="s">
+      <c r="E73" s="2">
+        <v>20</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G73" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-    </row>
-    <row r="73" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="2" t="s">
+    </row>
+    <row r="74" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
         <v>2</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="2">
-        <v>1</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E74" s="2">
-        <v>20</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>87</v>
-      </c>
+      <c r="B74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E75" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E75" s="1">
+        <v>20</v>
+      </c>
       <c r="F75" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>163</v>
+        <v>7</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
@@ -2739,298 +2673,289 @@
         <v>20</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+        <v>81</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+    </row>
+    <row r="80" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="1">
-        <v>20</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-    </row>
-    <row r="81" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="F80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>1</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>6</v>
+      <c r="B81" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81">
+        <v>20</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E82">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+    </row>
+    <row r="85" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E83">
-        <v>50</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="D85" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E84">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="20" t="s">
+      <c r="E85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-    </row>
-    <row r="86" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>6</v>
+      <c r="D86" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86">
+        <v>20</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>98</v>
+        <v>2</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="E87">
         <v>20</v>
       </c>
-      <c r="F87" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>87</v>
-      </c>
+      <c r="F87" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G87" s="8"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>98</v>
+        <v>144</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="E88">
         <v>20</v>
       </c>
+      <c r="F88" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G88" s="8"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>98</v>
+        <v>147</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="E89">
         <v>20</v>
       </c>
+      <c r="F89" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G89" s="8"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E90">
+        <v>20</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="92" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+    </row>
+    <row r="93" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B90" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E90">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>7</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E91">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>8</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E92">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>9</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E93">
-        <v>20</v>
+      <c r="F93" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>10</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>132</v>
+        <v>1</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E94">
         <v>20</v>
@@ -3038,16 +2963,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>11</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>133</v>
+        <v>2</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E95">
         <v>20</v>
@@ -3055,182 +2980,56 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>12</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>134</v>
+        <v>3</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E96">
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>13</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E97">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>14</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E98">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>15</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E99">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-    </row>
-    <row r="103" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>1</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E104">
-        <v>20</v>
-      </c>
-      <c r="G104" s="11"/>
-    </row>
-    <row r="105" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>2</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E105">
-        <v>20</v>
-      </c>
-      <c r="G105" s="2" t="s">
+    <row r="109" spans="7:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G109" s="11"/>
+    </row>
+    <row r="110" spans="7:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G110" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>3</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E106">
-        <v>20</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G107" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G108" s="8" t="s">
-        <v>88</v>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G111" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G112" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G113" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A64:G64"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A65:G65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
